--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.37421118656501</v>
+        <v>0.2298373333333333</v>
       </c>
       <c r="N2">
-        <v>8.37421118656501</v>
+        <v>0.689512</v>
       </c>
       <c r="O2">
-        <v>0.9599046450919442</v>
+        <v>0.02491532190107932</v>
       </c>
       <c r="P2">
-        <v>0.9599046450919442</v>
+        <v>0.02491532190107933</v>
       </c>
       <c r="Q2">
-        <v>318.6916817028525</v>
+        <v>8.956647800032</v>
       </c>
       <c r="R2">
-        <v>318.6916817028525</v>
+        <v>80.609830200288</v>
       </c>
       <c r="S2">
-        <v>0.662525514999357</v>
+        <v>0.01716002031457066</v>
       </c>
       <c r="T2">
-        <v>0.662525514999357</v>
+        <v>0.01716002031457067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H3">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.34979200415076</v>
+        <v>8.445752666666667</v>
       </c>
       <c r="N3">
-        <v>0.34979200415076</v>
+        <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.0400953549080558</v>
+        <v>0.9155546809347732</v>
       </c>
       <c r="P3">
-        <v>0.0400953549080558</v>
+        <v>0.9155546809347734</v>
       </c>
       <c r="Q3">
-        <v>13.31179732221952</v>
+        <v>329.126826109688</v>
       </c>
       <c r="R3">
-        <v>13.31179732221952</v>
+        <v>2962.141434987192</v>
       </c>
       <c r="S3">
-        <v>0.02767378592797331</v>
+        <v>0.6305733069120162</v>
       </c>
       <c r="T3">
-        <v>0.02767378592797331</v>
+        <v>0.6305733069120163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.677459575428619</v>
+        <v>38.969508</v>
       </c>
       <c r="H4">
-        <v>9.677459575428619</v>
+        <v>116.908524</v>
       </c>
       <c r="I4">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J4">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.37421118656501</v>
+        <v>0.04220933333333333</v>
       </c>
       <c r="N4">
-        <v>8.37421118656501</v>
+        <v>0.126628</v>
       </c>
       <c r="O4">
-        <v>0.9599046450919442</v>
+        <v>0.004575667111942754</v>
       </c>
       <c r="P4">
-        <v>0.9599046450919442</v>
+        <v>0.004575667111942755</v>
       </c>
       <c r="Q4">
-        <v>81.041090234085</v>
+        <v>1.644876953008</v>
       </c>
       <c r="R4">
-        <v>81.041090234085</v>
+        <v>14.803892577072</v>
       </c>
       <c r="S4">
-        <v>0.1684756557076022</v>
+        <v>0.003151415859903024</v>
       </c>
       <c r="T4">
-        <v>0.1684756557076022</v>
+        <v>0.003151415859903024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.677459575428619</v>
+        <v>38.969508</v>
       </c>
       <c r="H5">
-        <v>9.677459575428619</v>
+        <v>116.908524</v>
       </c>
       <c r="I5">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J5">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.34979200415076</v>
+        <v>0.006559666666666666</v>
       </c>
       <c r="N5">
-        <v>0.34979200415076</v>
+        <v>0.019679</v>
       </c>
       <c r="O5">
-        <v>0.0400953549080558</v>
+        <v>0.0007110951218997493</v>
       </c>
       <c r="P5">
-        <v>0.0400953549080558</v>
+        <v>0.0007110951218997495</v>
       </c>
       <c r="Q5">
-        <v>3.38509797997714</v>
+        <v>0.255626982644</v>
       </c>
       <c r="R5">
-        <v>3.38509797997714</v>
+        <v>2.300642843796</v>
       </c>
       <c r="S5">
-        <v>0.007037252339076546</v>
+        <v>0.0004897551308322931</v>
       </c>
       <c r="T5">
-        <v>0.007037252339076546</v>
+        <v>0.0004897551308322932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.559564399262086</v>
+        <v>38.969508</v>
       </c>
       <c r="H6">
-        <v>0.559564399262086</v>
+        <v>116.908524</v>
       </c>
       <c r="I6">
-        <v>0.01014840456716986</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J6">
-        <v>0.01014840456716986</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.37421118656501</v>
+        <v>0.5003796666666667</v>
       </c>
       <c r="N6">
-        <v>8.37421118656501</v>
+        <v>1.501139</v>
       </c>
       <c r="O6">
-        <v>0.9599046450919442</v>
+        <v>0.05424323493030479</v>
       </c>
       <c r="P6">
-        <v>0.9599046450919442</v>
+        <v>0.0542432349303048</v>
       </c>
       <c r="Q6">
-        <v>4.68591045190409</v>
+        <v>19.499549423204</v>
       </c>
       <c r="R6">
-        <v>4.68591045190409</v>
+        <v>175.495944808836</v>
       </c>
       <c r="S6">
-        <v>0.009741500684298654</v>
+        <v>0.03735914057332474</v>
       </c>
       <c r="T6">
-        <v>0.009741500684298654</v>
+        <v>0.03735914057332475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H7">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J7">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.34979200415076</v>
+        <v>0.2298373333333333</v>
       </c>
       <c r="N7">
-        <v>0.34979200415076</v>
+        <v>0.689512</v>
       </c>
       <c r="O7">
-        <v>0.0400953549080558</v>
+        <v>0.02491532190107932</v>
       </c>
       <c r="P7">
-        <v>0.0400953549080558</v>
+        <v>0.02491532190107933</v>
       </c>
       <c r="Q7">
-        <v>0.1957311526693011</v>
+        <v>2.226142431199111</v>
       </c>
       <c r="R7">
-        <v>0.1957311526693011</v>
+        <v>20.035281880792</v>
       </c>
       <c r="S7">
-        <v>0.0004069038828712101</v>
+        <v>0.004265061013381367</v>
       </c>
       <c r="T7">
-        <v>0.0004069038828712101</v>
+        <v>0.004265061013381369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.395774929194067</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H8">
-        <v>0.395774929194067</v>
+        <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.007177876405827559</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J8">
-        <v>0.007177876405827559</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.37421118656501</v>
+        <v>8.445752666666667</v>
       </c>
       <c r="N8">
-        <v>8.37421118656501</v>
+        <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9599046450919442</v>
+        <v>0.9155546809347732</v>
       </c>
       <c r="P8">
-        <v>0.9599046450919442</v>
+        <v>0.9155546809347734</v>
       </c>
       <c r="Q8">
-        <v>3.31430283941893</v>
+        <v>81.80328279136424</v>
       </c>
       <c r="R8">
-        <v>3.31430283941893</v>
+        <v>736.2295451222782</v>
       </c>
       <c r="S8">
-        <v>0.006890076903849743</v>
+        <v>0.1567267158247937</v>
       </c>
       <c r="T8">
-        <v>0.006890076903849743</v>
+        <v>0.1567267158247937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.395774929194067</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H9">
-        <v>0.395774929194067</v>
+        <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.007177876405827559</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J9">
-        <v>0.007177876405827559</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.34979200415076</v>
+        <v>0.04220933333333333</v>
       </c>
       <c r="N9">
-        <v>0.34979200415076</v>
+        <v>0.126628</v>
       </c>
       <c r="O9">
-        <v>0.0400953549080558</v>
+        <v>0.004575667111942754</v>
       </c>
       <c r="P9">
-        <v>0.0400953549080558</v>
+        <v>0.004575667111942755</v>
       </c>
       <c r="Q9">
-        <v>0.1384389056754178</v>
+        <v>0.4088282202164444</v>
       </c>
       <c r="R9">
-        <v>0.1384389056754178</v>
+        <v>3.679453981948</v>
       </c>
       <c r="S9">
-        <v>0.0002877995019778159</v>
+        <v>0.000783273019182343</v>
       </c>
       <c r="T9">
-        <v>0.0002877995019778159</v>
+        <v>0.0007832730191823431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.44904296792746</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H10">
-        <v>6.44904296792746</v>
+        <v>29.057191</v>
       </c>
       <c r="I10">
-        <v>0.1169615100529935</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J10">
-        <v>0.1169615100529935</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>8.37421118656501</v>
+        <v>0.006559666666666666</v>
       </c>
       <c r="N10">
-        <v>8.37421118656501</v>
+        <v>0.019679</v>
       </c>
       <c r="O10">
-        <v>0.9599046450919442</v>
+        <v>0.0007110951218997493</v>
       </c>
       <c r="P10">
-        <v>0.9599046450919442</v>
+        <v>0.0007110951218997495</v>
       </c>
       <c r="Q10">
-        <v>54.00564776465655</v>
+        <v>0.06353516240988888</v>
       </c>
       <c r="R10">
-        <v>54.00564776465655</v>
+        <v>0.571816461689</v>
       </c>
       <c r="S10">
-        <v>0.1122718967968366</v>
+        <v>0.0001217268672370197</v>
       </c>
       <c r="T10">
-        <v>0.1122718967968366</v>
+        <v>0.0001217268672370197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.44904296792746</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H11">
-        <v>6.44904296792746</v>
+        <v>29.057191</v>
       </c>
       <c r="I11">
-        <v>0.1169615100529935</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J11">
-        <v>0.1169615100529935</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.34979200415076</v>
+        <v>0.5003796666666667</v>
       </c>
       <c r="N11">
-        <v>0.34979200415076</v>
+        <v>1.501139</v>
       </c>
       <c r="O11">
-        <v>0.0400953549080558</v>
+        <v>0.05424323493030479</v>
       </c>
       <c r="P11">
-        <v>0.0400953549080558</v>
+        <v>0.0542432349303048</v>
       </c>
       <c r="Q11">
-        <v>2.255823664605712</v>
+        <v>4.846542515616556</v>
       </c>
       <c r="R11">
-        <v>2.255823664605712</v>
+        <v>43.618882640549</v>
       </c>
       <c r="S11">
-        <v>0.00468961325615691</v>
+        <v>0.009285479331130267</v>
       </c>
       <c r="T11">
-        <v>0.00468961325615691</v>
+        <v>0.009285479331130268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6067633333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.82029</v>
+      </c>
+      <c r="I12">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="J12">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.689512</v>
+      </c>
+      <c r="O12">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P12">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q12">
+        <v>0.1394568664977778</v>
+      </c>
+      <c r="R12">
+        <v>1.25511179848</v>
+      </c>
+      <c r="S12">
+        <v>0.0002671850803488874</v>
+      </c>
+      <c r="T12">
+        <v>0.0002671850803488875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6067633333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.82029</v>
+      </c>
+      <c r="I13">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="J13">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N13">
+        <v>25.337258</v>
+      </c>
+      <c r="O13">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P13">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q13">
+        <v>5.124573040535556</v>
+      </c>
+      <c r="R13">
+        <v>46.12115736482</v>
+      </c>
+      <c r="S13">
+        <v>0.009818157355565228</v>
+      </c>
+      <c r="T13">
+        <v>0.009818157355565229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6067633333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.82029</v>
+      </c>
+      <c r="I14">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="J14">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.126628</v>
+      </c>
+      <c r="O14">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P14">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q14">
+        <v>0.02561107579111111</v>
+      </c>
+      <c r="R14">
+        <v>0.23049968212</v>
+      </c>
+      <c r="S14">
+        <v>4.906819947211784E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.906819947211784E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6067633333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.82029</v>
+      </c>
+      <c r="I15">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="J15">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.019679</v>
+      </c>
+      <c r="O15">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P15">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q15">
+        <v>0.003980165212222221</v>
+      </c>
+      <c r="R15">
+        <v>0.03582148691</v>
+      </c>
+      <c r="S15">
+        <v>7.62558910676791E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.625589106767912E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6067633333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.82029</v>
+      </c>
+      <c r="I16">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="J16">
+        <v>0.01072372580252768</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.501139</v>
+      </c>
+      <c r="O16">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P16">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q16">
+        <v>0.3036120344788889</v>
+      </c>
+      <c r="R16">
+        <v>2.73250831031</v>
+      </c>
+      <c r="S16">
+        <v>0.0005816895780346804</v>
+      </c>
+      <c r="T16">
+        <v>0.0005816895780346805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.436248</v>
+      </c>
+      <c r="I17">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J17">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.689512</v>
+      </c>
+      <c r="O17">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P17">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q17">
+        <v>0.1100344701084444</v>
+      </c>
+      <c r="R17">
+        <v>0.990310230976</v>
+      </c>
+      <c r="S17">
+        <v>0.0002108147807662124</v>
+      </c>
+      <c r="T17">
+        <v>0.0002108147807662125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.436248</v>
+      </c>
+      <c r="I18">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J18">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N18">
+        <v>25.337258</v>
+      </c>
+      <c r="O18">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P18">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q18">
+        <v>4.043398458664889</v>
+      </c>
+      <c r="R18">
+        <v>36.390586127984</v>
+      </c>
+      <c r="S18">
+        <v>0.007746737533918136</v>
+      </c>
+      <c r="T18">
+        <v>0.00774673753391814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.436248</v>
+      </c>
+      <c r="I19">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J19">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.126628</v>
+      </c>
+      <c r="O19">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P19">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q19">
+        <v>0.02020769019377778</v>
+      </c>
+      <c r="R19">
+        <v>0.181869211744</v>
+      </c>
+      <c r="S19">
+        <v>3.871586579909261E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.871586579909262E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.436248</v>
+      </c>
+      <c r="I20">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J20">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.019679</v>
+      </c>
+      <c r="O20">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P20">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q20">
+        <v>0.003140436043555555</v>
+      </c>
+      <c r="R20">
+        <v>0.028263924392</v>
+      </c>
+      <c r="S20">
+        <v>6.016753980638906E-06</v>
+      </c>
+      <c r="T20">
+        <v>6.016753980638909E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.436248</v>
+      </c>
+      <c r="I21">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J21">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.501139</v>
+      </c>
+      <c r="O21">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P21">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q21">
+        <v>0.2395564318302222</v>
+      </c>
+      <c r="R21">
+        <v>2.156007886472</v>
+      </c>
+      <c r="S21">
+        <v>0.0004589656005763661</v>
+      </c>
+      <c r="T21">
+        <v>0.0004589656005763663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H22">
+        <v>20.521923</v>
+      </c>
+      <c r="I22">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J22">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.689512</v>
+      </c>
+      <c r="O22">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P22">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q22">
+        <v>1.572234685730666</v>
+      </c>
+      <c r="R22">
+        <v>14.150112171576</v>
+      </c>
+      <c r="S22">
+        <v>0.003012240712012196</v>
+      </c>
+      <c r="T22">
+        <v>0.003012240712012196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H23">
+        <v>20.521923</v>
+      </c>
+      <c r="I23">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J23">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N23">
+        <v>25.337258</v>
+      </c>
+      <c r="O23">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P23">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q23">
+        <v>57.77436196745933</v>
+      </c>
+      <c r="R23">
+        <v>519.969257707134</v>
+      </c>
+      <c r="S23">
+        <v>0.1106897633084801</v>
+      </c>
+      <c r="T23">
+        <v>0.1106897633084801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H24">
+        <v>20.521923</v>
+      </c>
+      <c r="I24">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J24">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.126628</v>
+      </c>
+      <c r="O24">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P24">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q24">
+        <v>0.2887388961826666</v>
+      </c>
+      <c r="R24">
+        <v>2.598650065644</v>
+      </c>
+      <c r="S24">
+        <v>0.0005531941675861773</v>
+      </c>
+      <c r="T24">
+        <v>0.0005531941675861774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H25">
+        <v>20.521923</v>
+      </c>
+      <c r="I25">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J25">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.019679</v>
+      </c>
+      <c r="O25">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P25">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q25">
+        <v>0.04487232474633332</v>
+      </c>
+      <c r="R25">
+        <v>0.4038509227169999</v>
+      </c>
+      <c r="S25">
+        <v>8.597078074302984E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.597078074302987E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H26">
+        <v>20.521923</v>
+      </c>
+      <c r="I26">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J26">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.501139</v>
+      </c>
+      <c r="O26">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P26">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q26">
+        <v>3.422917663366333</v>
+      </c>
+      <c r="R26">
+        <v>30.806258970297</v>
+      </c>
+      <c r="S26">
+        <v>0.006557959847238736</v>
+      </c>
+      <c r="T26">
+        <v>0.006557959847238738</v>
       </c>
     </row>
   </sheetData>
